--- a/medicine/Pharmacie/Catalent/Catalent.xlsx
+++ b/medicine/Pharmacie/Catalent/Catalent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Catalent est une entreprise américaine de sous-traitance pharmaceutique, appelée également façonnier.
@@ -512,17 +524,19 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catalent est à l'origine une filiale de Cardinal Health. En 2007, Cardinal Health vend Catalent à Blackstone pour 3,3 milliards de dollars[2].
-En avril 2016, Lonza, un de ses concurrents américains, annonce son intention d'acquérir Catalent mais l'équipe dirigeante de Catalent refuse cette tentative[2].
-En juillet 2018, Catalent annonce l'acquisition de Juniper Pharmaceuticals pour environ 128 millions de dollars[3].
-En avril 2019, Catalent annonce l’acquisition de Paragon Bioservices, spécialisée dans la thérapie génique, pour 1,2 milliard de dollars en liquidité[4].
-En février 2020, Catalent acquiert MaSTherCell[5], une spin-off de l'ULB basé à Gosselies pour près de 285 millions d'euros, MaSTherCell est une societé de mise au point et de production de thérapies cellulaires et géniques
-[6].
-En février 2021, Catalent acquiert Delphi Genetics. Catalent entend faire de Gosselies « son centre d’excellence au niveau européen pour ce qui est du marché des thérapies géniques et cellulaires », selon François Blondel[7].
-En août 2021, Catalent acquiert Bettera, une entreprise spécialisée dans les compléments alimentaires, pour 1 milliard de dollars[8].
-En février 2024, Novo Nordisk annonce l'acquisition pour 16,2 milliards de dollars de Catalent, notamment parce que Catalent est impliquée dans la fabrication du Wegovy[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catalent est à l'origine une filiale de Cardinal Health. En 2007, Cardinal Health vend Catalent à Blackstone pour 3,3 milliards de dollars.
+En avril 2016, Lonza, un de ses concurrents américains, annonce son intention d'acquérir Catalent mais l'équipe dirigeante de Catalent refuse cette tentative.
+En juillet 2018, Catalent annonce l'acquisition de Juniper Pharmaceuticals pour environ 128 millions de dollars.
+En avril 2019, Catalent annonce l’acquisition de Paragon Bioservices, spécialisée dans la thérapie génique, pour 1,2 milliard de dollars en liquidité.
+En février 2020, Catalent acquiert MaSTherCell, une spin-off de l'ULB basé à Gosselies pour près de 285 millions d'euros, MaSTherCell est une societé de mise au point et de production de thérapies cellulaires et géniques
+.
+En février 2021, Catalent acquiert Delphi Genetics. Catalent entend faire de Gosselies « son centre d’excellence au niveau européen pour ce qui est du marché des thérapies géniques et cellulaires », selon François Blondel.
+En août 2021, Catalent acquiert Bettera, une entreprise spécialisée dans les compléments alimentaires, pour 1 milliard de dollars.
+En février 2024, Novo Nordisk annonce l'acquisition pour 16,2 milliards de dollars de Catalent, notamment parce que Catalent est impliquée dans la fabrication du Wegovy.
 </t>
         </is>
       </c>
